--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -59,52 +59,53 @@
     <t>MasterDesc_1001</t>
   </si>
   <si>
+    <t>크롤 세울</t>
+  </si>
+  <si>
+    <t>100103, 100104, 100105, 200102, 200102, 300101, 300201</t>
+  </si>
+  <si>
+    <t>9001002, 9001002</t>
+  </si>
+  <si>
+    <t>바락 라훔</t>
+  </si>
+  <si>
+    <t>100105, 100105, 100305, 200101, 300101, 300101, 300201</t>
+  </si>
+  <si>
+    <t>Master_Id</t>
+  </si>
+  <si>
+    <t>MasterNameDesc_Id</t>
+  </si>
+  <si>
+    <t>MasterDesc_Id</t>
+  </si>
+  <si>
+    <t>MasterAi_id</t>
+  </si>
+  <si>
+    <t>StartMana</t>
+  </si>
+  <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
+    <t>RechargeMana</t>
+  </si>
+  <si>
+    <t>StartCardDeck_Id</t>
+  </si>
+  <si>
+    <t>StartArtiFact_Id</t>
+  </si>
+  <si>
+    <t>StartAbility_Id</t>
+  </si>
+  <si>
     <t>100101, 100101, 100301, 200101, 300101, 300101, 300201</t>
-  </si>
-  <si>
-    <t>크롤 세울</t>
-  </si>
-  <si>
-    <t>100103, 100104, 100105, 200102, 200102, 300101, 300201</t>
-  </si>
-  <si>
-    <t>9001002, 9001002</t>
-  </si>
-  <si>
-    <t>바락 라훔</t>
-  </si>
-  <si>
-    <t>100105, 100105, 100305, 200101, 300101, 300101, 300201</t>
-  </si>
-  <si>
-    <t>Master_Id</t>
-  </si>
-  <si>
-    <t>MasterNameDesc_Id</t>
-  </si>
-  <si>
-    <t>MasterDesc_Id</t>
-  </si>
-  <si>
-    <t>MasterAi_id</t>
-  </si>
-  <si>
-    <t>StartMana</t>
-  </si>
-  <si>
-    <t>MaxMana</t>
-  </si>
-  <si>
-    <t>RechargeMana</t>
-  </si>
-  <si>
-    <t>StartCardDeck_Id</t>
-  </si>
-  <si>
-    <t>StartArtiFact_Id</t>
-  </si>
-  <si>
-    <t>StartAbility_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,7 +545,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L10" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -566,19 +567,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -590,22 +591,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.399999999999999">
@@ -641,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4">
         <v>1001</v>
@@ -655,7 +656,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -683,11 +684,11 @@
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.399999999999999">
@@ -695,7 +696,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -723,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4">

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>100101, 100101, 100301, 200101, 300101, 300101, 300201</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatureSlots</t>
   </si>
 </sst>
 </file>
@@ -542,30 +545,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L9:L10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="52.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="52.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -599,17 +602,20 @@
       <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.399999999999999">
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -641,17 +647,20 @@
       <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>1001</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>9001001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.399999999999999">
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -683,15 +692,18 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.399999999999999">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -723,11 +735,14 @@
       <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
         <v>9001004</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -65,57 +65,63 @@
     <t>100103, 100104, 100105, 200102, 200102, 300101, 300201</t>
   </si>
   <si>
+    <t>바락 라훔</t>
+  </si>
+  <si>
+    <t>100105, 100105, 100305, 200101, 300101, 300101, 300201</t>
+  </si>
+  <si>
+    <t>Master_Id</t>
+  </si>
+  <si>
+    <t>MasterNameDesc_Id</t>
+  </si>
+  <si>
+    <t>MasterDesc_Id</t>
+  </si>
+  <si>
+    <t>MasterAi_id</t>
+  </si>
+  <si>
+    <t>StartMana</t>
+  </si>
+  <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
+    <t>RechargeMana</t>
+  </si>
+  <si>
+    <t>StartCardDeck_Id</t>
+  </si>
+  <si>
+    <t>StartArtiFact_Id</t>
+  </si>
+  <si>
+    <t>StartAbility_Id</t>
+  </si>
+  <si>
+    <t>CreatureSlots</t>
+  </si>
+  <si>
+    <t>MaxSatietyGauge</t>
+  </si>
+  <si>
+    <t>SatietyGauge</t>
+  </si>
+  <si>
+    <t>100101, 100101, 100301, 200101, 300101, 300101, 300201</t>
+  </si>
+  <si>
     <t>9001002, 9001002</t>
-  </si>
-  <si>
-    <t>바락 라훔</t>
-  </si>
-  <si>
-    <t>100105, 100105, 100305, 200101, 300101, 300101, 300201</t>
-  </si>
-  <si>
-    <t>Master_Id</t>
-  </si>
-  <si>
-    <t>MasterNameDesc_Id</t>
-  </si>
-  <si>
-    <t>MasterDesc_Id</t>
-  </si>
-  <si>
-    <t>MasterAi_id</t>
-  </si>
-  <si>
-    <t>StartMana</t>
-  </si>
-  <si>
-    <t>MaxMana</t>
-  </si>
-  <si>
-    <t>RechargeMana</t>
-  </si>
-  <si>
-    <t>StartCardDeck_Id</t>
-  </si>
-  <si>
-    <t>StartArtiFact_Id</t>
-  </si>
-  <si>
-    <t>StartAbility_Id</t>
-  </si>
-  <si>
-    <t>100101, 100101, 100301, 200101, 300101, 300101, 300201</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatureSlots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -140,8 +146,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,9 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +211,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -562,187 +584,205 @@
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="52.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="1"/>
+    <col min="15" max="15" width="53.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="17.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25">
+      <c r="A2" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10001</v>
+      </c>
+      <c r="F2" s="5">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>9001001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25">
+      <c r="A3" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10002</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5">
-      <c r="A2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10001</v>
-      </c>
-      <c r="F2" s="4">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="O2" s="4">
-        <v>9001001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5">
-      <c r="A3" s="4">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10002</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4">
+    <row r="4" spans="1:17" ht="17.25">
+      <c r="A4" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10003</v>
+      </c>
+      <c r="F4" s="5">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
         <v>5</v>
       </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5">
-      <c r="A4" s="4">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10003</v>
-      </c>
-      <c r="F4" s="4">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="7">
         <v>9001004</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -115,6 +115,12 @@
   <si>
     <t>9001002, 9001002</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MasterShortDesc_Id</t>
+  </si>
+  <si>
+    <t>MasterShortDesc_1001</t>
   </si>
 </sst>
 </file>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -579,20 +585,21 @@
     <col min="2" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="1"/>
+    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25">
+    <row r="1" spans="1:18" ht="17.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -606,46 +613,49 @@
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25">
+    <row r="2" spans="1:18" ht="17.25">
       <c r="A2" s="5">
         <v>1001</v>
       </c>
@@ -658,45 +668,48 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5">
         <v>10001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>4</v>
       </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
       <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
         <v>6</v>
       </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
       <c r="L2" s="5">
         <v>2</v>
       </c>
       <c r="M2" s="5">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
         <v>100</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>1001</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>9001001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.25">
+    <row r="3" spans="1:18" ht="17.25">
       <c r="A3" s="5">
         <v>1002</v>
       </c>
@@ -709,39 +722,40 @@
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <v>10002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>20</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
         <v>5</v>
       </c>
-      <c r="K3" s="5">
-        <v>2</v>
-      </c>
       <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25">
+    <row r="4" spans="1:18" ht="17.25">
       <c r="A4" s="5">
         <v>1003</v>
       </c>
@@ -754,35 +768,36 @@
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>10003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>13</v>
       </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
         <v>5</v>
       </c>
-      <c r="K4" s="5">
-        <v>2</v>
-      </c>
       <c r="L4" s="5">
         <v>2</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5">
+        <v>2</v>
+      </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7">
         <v>9001004</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -113,14 +113,13 @@
     <t>100101, 100101, 100301, 200101, 300101, 300101, 300201</t>
   </si>
   <si>
+    <t>MasterShortDesc_Id</t>
+  </si>
+  <si>
+    <t>MasterShortDesc_1001</t>
+  </si>
+  <si>
     <t>9001002, 9001002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MasterShortDesc_Id</t>
-  </si>
-  <si>
-    <t>MasterShortDesc_1001</t>
   </si>
 </sst>
 </file>
@@ -576,7 +575,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -613,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -669,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5">
         <v>10001</v>
@@ -752,7 +751,7 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25">

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080267F0-EE43-4599-BAD1-1A32F4605435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -110,9 +111,6 @@
     <t>SatietyGauge</t>
   </si>
   <si>
-    <t>100101, 100101, 100301, 200101, 300101, 300101, 300201</t>
-  </si>
-  <si>
     <t>MasterShortDesc_Id</t>
   </si>
   <si>
@@ -120,12 +118,16 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
+  </si>
+  <si>
+    <t>100101, 100101, 100301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -215,7 +217,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,14 +573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -612,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -668,17 +670,17 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>10001</v>
       </c>
       <c r="G2" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
         <v>2</v>
@@ -699,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>
@@ -751,7 +753,7 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25">

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080267F0-EE43-4599-BAD1-1A32F4605435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305E51C-6C91-46F4-BD52-EC5A2EBC693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>100101, 100101, 100301</t>
+    <t>81001, 81002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305E51C-6C91-46F4-BD52-EC5A2EBC693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA8C70-EDA4-4943-BFA3-599EA39566E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81001, 81002</t>
+    <t>81001, 81002, 81003, 81004, 81005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA8C70-EDA4-4943-BFA3-599EA39566E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90549BB0-35BD-4CA1-BAD8-3C82E8B258FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81001, 81002, 81003, 81004, 81005</t>
+    <t>81001, 81002, 81003, 81004, 81005, 81006, 81007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90549BB0-35BD-4CA1-BAD8-3C82E8B258FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6B487-5656-408C-8497-C68433551AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81001, 81002, 81003, 81004, 81005, 81006, 81007</t>
+    <t>81001, 81002, 81003, 81004, 81005, 81006, 81009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6B487-5656-408C-8497-C68433551AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A3CA9-389C-4C68-8669-153B5425B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
-  </si>
-  <si>
-    <t>81001, 81002, 81003, 81004, 81005, 81006, 81009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -577,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -700,8 +696,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
+      <c r="P2" s="5">
+        <v>81012</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A3CA9-389C-4C68-8669-153B5425B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635C7B3F-053B-4FD5-A747-2AB3054A4EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81012</v>
+        <v>81015</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635C7B3F-053B-4FD5-A747-2AB3054A4EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFAC27A-9A2B-4383-AF8B-75612C6660C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFAC27A-9A2B-4383-AF8B-75612C6660C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA3A6B-B389-435D-BF0E-4B97C6705C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -672,7 +672,7 @@
         <v>10001</v>
       </c>
       <c r="G2" s="5">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5">
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81015</v>
+        <v>81017</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA3A6B-B389-435D-BF0E-4B97C6705C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEDFAB-CD31-4B64-AE8D-FB82D952C139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81017</v>
+        <v>81031</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEDFAB-CD31-4B64-AE8D-FB82D952C139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BDF459-4BAE-4FCD-A4A8-B6F8CA810943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81031</v>
+        <v>81017</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BDF459-4BAE-4FCD-A4A8-B6F8CA810943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA0D77-73CA-48E3-B2F4-0A18A5A24505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81017</v>
+        <v>81033</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA0D77-73CA-48E3-B2F4-0A18A5A24505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2F3FDA-2B15-4FB5-B2AE-380E750A889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81033</v>
+        <v>81034</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2F3FDA-2B15-4FB5-B2AE-380E750A889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7366B1-8362-420A-A2E2-BB2C643AC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81034</v>
+        <v>81035</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7366B1-8362-420A-A2E2-BB2C643AC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BD272-AC7C-48ED-B488-82D1BA2FC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81035</v>
+        <v>81037</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BD272-AC7C-48ED-B488-82D1BA2FC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C81A8-B818-4D32-A5B5-D4D99AC542AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81037</v>
+        <v>81039</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C81A8-B818-4D32-A5B5-D4D99AC542AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932C2D2-B16D-4DEB-953F-CDD6D6792B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
+  </si>
+  <si>
+    <t>81040, 81041, 81042, 81043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -696,8 +700,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5">
-        <v>81039</v>
+      <c r="P2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932C2D2-B16D-4DEB-953F-CDD6D6792B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FBE666-581A-4669-BDD9-027D939A6693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81040, 81041, 81042, 81043</t>
+    <t>81044, 81038</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FBE666-581A-4669-BDD9-027D939A6693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB824F35-1412-48CA-B327-7FB3BA7F1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81044, 81038</t>
+    <t>81044, 81038, 81045, 81046</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB824F35-1412-48CA-B327-7FB3BA7F1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF239CE5-1C0A-40AA-87D4-3167A481D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81044, 81038, 81045, 81046</t>
+    <t>99991, 99992, 99993, 99994, 1015, 1015, 1015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF239CE5-1C0A-40AA-87D4-3167A481D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B9958-90CF-4FBC-A0F2-2FBB213F3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>99991, 99992, 99993, 99994, 1015, 1015, 1015</t>
+    <t>81024, 81037</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B9958-90CF-4FBC-A0F2-2FBB213F3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395E95B-436D-4006-BE24-9E0B7FEA8A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -120,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81024, 81037</t>
+    <t>81025, 81048</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395E95B-436D-4006-BE24-9E0B7FEA8A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6712EDF-A196-46CF-9317-D7D1BC0EA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81025, 81048</t>
+    <t>99995, 99996</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6712EDF-A196-46CF-9317-D7D1BC0EA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2617EB81-DEF5-446F-BCDD-16CDE1C2F7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
-  </si>
-  <si>
-    <t>99995, 99996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,7 +584,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -711,8 +707,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
+      <c r="P2" s="5">
+        <v>81049</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2617EB81-DEF5-446F-BCDD-16CDE1C2F7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B7F52F-C465-4C58-8D58-BA4BBFD30734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -685,7 +685,9 @@
       <c r="G2" s="5">
         <v>99</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
       <c r="I2" s="5">
         <v>2</v>
       </c>
@@ -708,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81049</v>
+        <v>81050</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B7F52F-C465-4C58-8D58-BA4BBFD30734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84975E3E-E83E-497B-8774-821159FC562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -710,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81050</v>
+        <v>81053</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84975E3E-E83E-497B-8774-821159FC562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A576F2-9BBF-409F-B114-B08E432CA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
+  </si>
+  <si>
+    <t>99997, 99998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -709,8 +713,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5">
-        <v>81053</v>
+      <c r="P2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A576F2-9BBF-409F-B114-B08E432CA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9717BF-F26E-461C-8EAD-2CFD9C498CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>99997, 99998</t>
+    <t>81051, 81052</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9717BF-F26E-461C-8EAD-2CFD9C498CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4316A4A3-EBB8-4D3B-B7E4-5145C16FDA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81051, 81052</t>
+    <t>81057, 81058</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4316A4A3-EBB8-4D3B-B7E4-5145C16FDA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750058AC-B370-4DF2-B668-3F07D8260F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81057, 81058</t>
+    <t>81059, 81060, 81024, 81024, 81024, 81024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750058AC-B370-4DF2-B668-3F07D8260F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568EDF8-46CC-4793-8047-27DC665F9347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81059, 81060, 81024, 81024, 81024, 81024</t>
+    <t>81061, 81062, 81063</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568EDF8-46CC-4793-8047-27DC665F9347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517882B9-60DD-411F-B79B-2E39F3F59AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
-  </si>
-  <si>
-    <t>81061, 81062, 81063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,7 +584,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -713,8 +709,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
+      <c r="P2" s="5">
+        <v>81064</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517882B9-60DD-411F-B79B-2E39F3F59AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26954D94-63DB-4288-913F-7F006DD06CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -710,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="5">
-        <v>81064</v>
+        <v>81065</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26954D94-63DB-4288-913F-7F006DD06CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A86551-335A-480E-8EDD-7BF129E98F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
+  </si>
+  <si>
+    <t>81066, 81067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -709,8 +713,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5">
-        <v>81065</v>
+      <c r="P2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A86551-335A-480E-8EDD-7BF129E98F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879B525-5936-4520-BF97-F8F4A02EB50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81066, 81067</t>
+    <t>81066, 81068, 81069</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879B525-5936-4520-BF97-F8F4A02EB50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DACB9E-DD19-441F-BE44-047302A5AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81066, 81068, 81069</t>
+    <t>81070, 81040, 81025, 81025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DACB9E-DD19-441F-BE44-047302A5AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA362C9-ABD3-4839-9EF0-163BDCC74845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81070, 81040, 81025, 81025</t>
+    <t>81071, 81025, 81025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA362C9-ABD3-4839-9EF0-163BDCC74845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A0701-EDC1-4218-B479-9400674CABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81071, 81025, 81025</t>
+    <t>81072, 81073</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A0701-EDC1-4218-B479-9400674CABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B94EA-BE74-4B94-B0A6-D2B2F8AA56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>9001002, 9001002</t>
   </si>
   <si>
-    <t>81072, 81073</t>
+    <t>81074, 81075</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Assets/ERang/Excels/MasterData.xlsx
+++ b/Assets/ERang/Excels/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B94EA-BE74-4B94-B0A6-D2B2F8AA56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD085BE-1D11-412C-9D3A-9B1675AA3F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>MasterName_1002</t>
   </si>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>9001002, 9001002</t>
-  </si>
-  <si>
-    <t>81074, 81075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,7 +584,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -713,8 +709,8 @@
       <c r="O2" s="5">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
+      <c r="P2" s="5">
+        <v>81076</v>
       </c>
       <c r="Q2" s="6">
         <v>1001</v>
